--- a/soportes/Matriz de Riesgo/Matriz de riesgos.xlsx
+++ b/soportes/Matriz de Riesgo/Matriz de riesgos.xlsx
@@ -1,18 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29523"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_C20668EF9286C2FBF7FB48DF57674261D1D263A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{592910F5-C0F1-4CD8-9618-E475F50FBCAD}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="General" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Rec. Humanos" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Rec. Financieros" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Software" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Hardware" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Software y Hardware" sheetId="6" r:id="rId9"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
+    <sheet name="Rec. Humanos" sheetId="2" r:id="rId2"/>
+    <sheet name="Rec. Financieros" sheetId="3" r:id="rId3"/>
+    <sheet name="Software" sheetId="4" r:id="rId4"/>
+    <sheet name="Hardware" sheetId="5" r:id="rId5"/>
+    <sheet name="Software y Hardware" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="QcGHcFyOWADgZRm9F8N8rQe1qVcrgRyMDa3+iTIHURE="/>
     </ext>
@@ -359,40 +377,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -402,7 +421,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -436,27 +455,39 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -466,6 +497,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -480,269 +512,339 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="20">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8E7FC"/>
+          <bgColor rgb="FFE8E7FC"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF8989EB"/>
           <bgColor rgb="FF8989EB"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8E7FC"/>
+          <bgColor rgb="FFE8E7FC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8989EB"/>
+          <bgColor rgb="FF8989EB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFE8E7FC"/>
           <bgColor rgb="FFE8E7FC"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8E7FC"/>
+          <bgColor rgb="FFE8E7FC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8989EB"/>
+          <bgColor rgb="FF8989EB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8E7FC"/>
+          <bgColor rgb="FFE8E7FC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8989EB"/>
+          <bgColor rgb="FF8989EB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8E7FC"/>
+          <bgColor rgb="FFE8E7FC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8989EB"/>
+          <bgColor rgb="FF8989EB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8E7FC"/>
+          <bgColor rgb="FFE8E7FC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8989EB"/>
+          <bgColor rgb="FF8989EB"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="7">
-    <tableStyle count="3" pivot="0" name="General-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="General-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Rec. Humanos-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Rec. Humanos-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Rec. Financieros-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Rec. Financieros-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Software-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Software-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle count="2" pivot="0" name="Software-style 2">
-      <tableStyleElement dxfId="3" type="firstRowStripe"/>
-      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    <tableStyle name="Software-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Hardware-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Hardware-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Software y Hardware-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Software y Hardware-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B3:G9" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="B3:G9">
   <tableColumns count="6">
-    <tableColumn name="ITEM" id="1"/>
-    <tableColumn name="DESCRIPCIÓN DEL RIESGO" id="2"/>
-    <tableColumn name="PRIORIDAD" id="3"/>
-    <tableColumn name="TIPO" id="4"/>
-    <tableColumn name="EVALUACIÓN" id="5"/>
-    <tableColumn name="ESTRATEGIA DE MITIGACIÓN" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ITEM"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DESCRIPCIÓN DEL RIESGO"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="PRIORIDAD"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TIPO"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EVALUACIÓN"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="ESTRATEGIA DE MITIGACIÓN"/>
   </tableColumns>
-  <tableStyleInfo name="General-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="General-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B3:G8" displayName="Table_2" name="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="B3:G8">
   <tableColumns count="6">
-    <tableColumn name="ITEM" id="1"/>
-    <tableColumn name="DESCRIPCIÓN DEL RIESGO" id="2"/>
-    <tableColumn name="PRIORIDAD" id="3"/>
-    <tableColumn name="TIPO" id="4"/>
-    <tableColumn name="EVALUACIÓN" id="5"/>
-    <tableColumn name="ESTRATEGIA DE MITIGACIÓN" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ITEM"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="DESCRIPCIÓN DEL RIESGO"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="PRIORIDAD"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="TIPO"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="EVALUACIÓN"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="ESTRATEGIA DE MITIGACIÓN"/>
   </tableColumns>
-  <tableStyleInfo name="Rec. Humanos-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Rec. Humanos-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B3:G4" displayName="Table_3" name="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="B3:G4">
   <tableColumns count="6">
-    <tableColumn name="ITEM" id="1"/>
-    <tableColumn name="DESCRIPCIÓN DEL RIESGO" id="2"/>
-    <tableColumn name="PRIORIDAD" id="3"/>
-    <tableColumn name="TIPO" id="4"/>
-    <tableColumn name="EVALUACIÓN" id="5"/>
-    <tableColumn name="ESTRATEGIA DE MITIGACIÓN" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ITEM"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="DESCRIPCIÓN DEL RIESGO"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="PRIORIDAD"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="TIPO"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="EVALUACIÓN"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="ESTRATEGIA DE MITIGACIÓN"/>
   </tableColumns>
-  <tableStyleInfo name="Rec. Financieros-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Rec. Financieros-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B3:G3" displayName="Table_4" name="Table_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="B3:G3" headerRowCount="0">
   <tableColumns count="6">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Column6"/>
   </tableColumns>
-  <tableStyleInfo name="Software-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Software-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -752,49 +854,49 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B4:G14" displayName="Table_5" name="Table_5" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="B4:G14" headerRowCount="0">
   <tableColumns count="6">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Column6"/>
   </tableColumns>
-  <tableStyleInfo name="Software-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Software-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B3:G9" displayName="Table_6" name="Table_6" id="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="B3:G9">
   <tableColumns count="6">
-    <tableColumn name="ITEM" id="1"/>
-    <tableColumn name="DESCRIPCIÓN DEL RIESGO" id="2"/>
-    <tableColumn name="PRIORIDAD" id="3"/>
-    <tableColumn name="TIPO" id="4"/>
-    <tableColumn name="EVALUACIÓN" id="5"/>
-    <tableColumn name="ESTRATEGIA DE MITIGACIÓN" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="ITEM"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="DESCRIPCIÓN DEL RIESGO"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="PRIORIDAD"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="TIPO"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="EVALUACIÓN"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="ESTRATEGIA DE MITIGACIÓN"/>
   </tableColumns>
-  <tableStyleInfo name="Hardware-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Hardware-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B3:G6" displayName="Table_7" name="Table_7" id="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table_7" displayName="Table_7" ref="B3:G6">
   <tableColumns count="6">
-    <tableColumn name="ITEM" id="1"/>
-    <tableColumn name="DESCRIPCIÓN DEL RIESGO" id="2"/>
-    <tableColumn name="PRIORIDAD" id="3"/>
-    <tableColumn name="TIPO" id="4"/>
-    <tableColumn name="EVALUACIÓN" id="5"/>
-    <tableColumn name="ESTRATEGIA DE MITIGACIÓN" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="ITEM"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="DESCRIPCIÓN DEL RIESGO"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="PRIORIDAD"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="TIPO"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="EVALUACIÓN"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="ESTRATEGIA DE MITIGACIÓN"/>
   </tableColumns>
-  <tableStyleInfo name="Software y Hardware-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Software y Hardware-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -984,186 +1086,186 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:G970"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="10.63"/>
-    <col customWidth="1" min="3" max="3" width="35.13"/>
-    <col customWidth="1" min="4" max="4" width="19.25"/>
-    <col customWidth="1" min="5" max="5" width="21.25"/>
-    <col customWidth="1" min="6" max="6" width="44.5"/>
-    <col customWidth="1" min="7" max="7" width="65.63"/>
-    <col customWidth="1" min="8" max="26" width="10.63"/>
+    <col min="1" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1"/>
+    <col min="7" max="7" width="65.5703125" customWidth="1"/>
+    <col min="8" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1"/>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="2" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="2:7" ht="14.25" customHeight="1">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="56.25" customHeight="1">
-      <c r="B4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="2:7" ht="56.25" customHeight="1">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="61.5" customHeight="1">
-      <c r="B5" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="2:7" ht="61.5" customHeight="1">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="67.5" customHeight="1">
-      <c r="B6" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="2:7" ht="67.5" customHeight="1">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="51.75" customHeight="1">
-      <c r="B7" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="2:7" ht="51.75" customHeight="1">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="61.5" customHeight="1">
-      <c r="B8" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="2:7" ht="61.5" customHeight="1">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="48.75" customHeight="1">
-      <c r="B9" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="2:7" ht="48.75" customHeight="1">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="10" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="11" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="12" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="13" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="14" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="15" spans="2:7" ht="14.25" customHeight="1"/>
+    <row r="16" spans="2:7" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -2122,168 +2224,167 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E9">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"General,Rec. Humanos,Rec. Financieros,Software,Hardware,Software y hardware"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Alto,Medio,Bajo"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="32.63"/>
-    <col customWidth="1" min="4" max="4" width="18.0"/>
-    <col customWidth="1" min="5" max="5" width="17.88"/>
-    <col customWidth="1" min="6" max="6" width="42.88"/>
-    <col customWidth="1" min="7" max="7" width="62.38"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.85546875" customWidth="1"/>
+    <col min="7" max="7" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="62.25" customHeight="1">
-      <c r="B4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="2:7" ht="62.25" customHeight="1">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="63.0" customHeight="1">
-      <c r="B5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="2:7" ht="63" customHeight="1">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" ht="61.5" customHeight="1">
-      <c r="B6" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="2:7" ht="61.5" customHeight="1">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" ht="53.25" customHeight="1">
-      <c r="B7" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="2:7" ht="53.25" customHeight="1">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" ht="56.25" customHeight="1">
-      <c r="B8" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="C8" s="12" t="s">
+    <row r="8" spans="2:7" ht="56.25" customHeight="1">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2291,86 +2392,87 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E8">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"General,Rec. Humanos,Rec. Financieros,Software,Hardware,Software y hardware"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D8" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Alto,Medio,Bajo"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="13.13"/>
-    <col customWidth="1" min="3" max="3" width="29.5"/>
-    <col customWidth="1" min="4" max="4" width="15.88"/>
-    <col customWidth="1" min="5" max="5" width="20.75"/>
-    <col customWidth="1" min="6" max="6" width="48.0"/>
-    <col customWidth="1" min="7" max="7" width="65.0"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="48" customWidth="1"/>
+    <col min="7" max="7" width="65" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2378,285 +2480,286 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"General,Rec. Humanos,Rec. Financieros,Software,Hardware,Software y hardware"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Alto,Medio,Bajo"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="30.13"/>
-    <col customWidth="1" min="4" max="4" width="14.75"/>
-    <col customWidth="1" min="5" max="5" width="17.0"/>
-    <col customWidth="1" min="6" max="6" width="50.25"/>
-    <col customWidth="1" min="7" max="7" width="64.0"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="50.28515625" customWidth="1"/>
+    <col min="7" max="7" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="63.75" customHeight="1">
-      <c r="B4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="13" t="s">
+    <row r="4" spans="2:7" ht="63.75" customHeight="1">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" ht="72.75" customHeight="1">
-      <c r="B5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="13" t="s">
+    <row r="5" spans="2:7" ht="72.75" customHeight="1">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" ht="46.5" customHeight="1">
-      <c r="B6" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="2:7" ht="46.5" customHeight="1">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" ht="51.75" customHeight="1">
-      <c r="B7" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="C7" s="14" t="s">
+    <row r="7" spans="2:7" ht="51.75" customHeight="1">
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" ht="57.75" customHeight="1">
-      <c r="B8" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    <row r="8" spans="2:7" ht="57.75" customHeight="1">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" ht="49.5" customHeight="1">
-      <c r="B9" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="2:7" ht="49.5" customHeight="1">
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" ht="51.75" customHeight="1">
-      <c r="B10" s="15">
-        <v>7.0</v>
-      </c>
-      <c r="C10" s="6" t="s">
+    <row r="10" spans="2:7" ht="51.75" customHeight="1">
+      <c r="B10" s="9">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" ht="51.75" customHeight="1">
-      <c r="B11" s="15">
-        <v>8.0</v>
-      </c>
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="2:7" ht="51.75" customHeight="1">
+      <c r="B11" s="9">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" ht="48.0" customHeight="1">
-      <c r="B12" s="15">
-        <v>9.0</v>
-      </c>
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="2:7" ht="48" customHeight="1">
+      <c r="B12" s="9">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" ht="36.75" customHeight="1">
-      <c r="B13" s="15">
-        <v>10.0</v>
-      </c>
-      <c r="C13" s="12" t="s">
+    <row r="13" spans="2:7" ht="36.75" customHeight="1">
+      <c r="B13" s="9">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" ht="44.25" customHeight="1">
-      <c r="B14" s="15">
-        <v>11.0</v>
-      </c>
-      <c r="C14" s="12" t="s">
+    <row r="14" spans="2:7" ht="44.25" customHeight="1">
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2664,186 +2767,187 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E14">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E14" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"General,Rec. Humanos,Rec. Financieros,Software,Hardware,Software y hardware"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D14" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Alto,Medio,Bajo"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <tableParts count="2">
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="27.5"/>
-    <col customWidth="1" min="4" max="4" width="18.5"/>
-    <col customWidth="1" min="5" max="5" width="16.13"/>
-    <col customWidth="1" min="6" max="6" width="46.88"/>
-    <col customWidth="1" min="7" max="7" width="68.25"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="7" max="7" width="68.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" ht="48.75" customHeight="1">
-      <c r="B5" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="18" t="s">
+    <row r="5" spans="2:7" ht="48.75" customHeight="1">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="6" ht="54.0" customHeight="1">
-      <c r="B6" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    <row r="6" spans="2:7" ht="54" customHeight="1">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" ht="51.0" customHeight="1">
-      <c r="B7" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="2:7" ht="51" customHeight="1">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" ht="49.5" customHeight="1">
-      <c r="B8" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="C8" s="12" t="s">
+    <row r="8" spans="2:7" ht="49.5" customHeight="1">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" ht="43.5" customHeight="1">
-      <c r="B9" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    <row r="9" spans="2:7" ht="43.5" customHeight="1">
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="7" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2851,125 +2955,126 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E9">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E9" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"General,Rec. Humanos,Rec. Financieros,Software,Hardware,Software y hardware"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D9" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Alto,Medio,Bajo"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="30.25"/>
-    <col customWidth="1" min="4" max="4" width="16.88"/>
-    <col customWidth="1" min="5" max="5" width="21.38"/>
-    <col customWidth="1" min="6" max="6" width="56.63"/>
-    <col customWidth="1" min="7" max="7" width="54.75"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="56.5703125" customWidth="1"/>
+    <col min="7" max="7" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="24" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" ht="39.75" customHeight="1">
-      <c r="B5" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="30" t="s">
+    <row r="5" spans="2:7" ht="39.75" customHeight="1">
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="33">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="26" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" s="11">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="15" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2977,17 +3082,250 @@
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
   </mergeCells>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E6">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E4:E6" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"General,Rec. Humanos,Rec. Financieros,Software,Hardware,Software y hardware"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D4:D6" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Alto,Medio,Bajo"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010029D82C79E9C45A4F8892A5168669910F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa680c546e7c9cabdbb9356841f32e17">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e3f02ce4-f17e-46f8-88f7-72120ec08e56" xmlns:ns3="8e4e03e1-f8b1-44af-8a18-d6c17e30f4d4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="779ff3b7aa334f9f0108cf3efea3b5cb" ns2:_="" ns3:_="">
+    <xsd:import namespace="e3f02ce4-f17e-46f8-88f7-72120ec08e56"/>
+    <xsd:import namespace="8e4e03e1-f8b1-44af-8a18-d6c17e30f4d4"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e3f02ce4-f17e-46f8-88f7-72120ec08e56" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d33c8c81-5745-4931-bcc4-c2aeafe86780" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8e4e03e1-f8b1-44af-8a18-d6c17e30f4d4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{396ada02-4a5f-4bd4-97dc-1bfb86635cca}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="8e4e03e1-f8b1-44af-8a18-d6c17e30f4d4">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="8e4e03e1-f8b1-44af-8a18-d6c17e30f4d4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e3f02ce4-f17e-46f8-88f7-72120ec08e56">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53D642A8-2C48-4984-8F0A-9B1D02C73B0B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA3A3DFC-B4F2-4554-8228-D3B35219F631}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{437F3424-3329-4356-BB12-AC56F2CBDDA3}"/>
 </file>